--- a/P4_02_analyse.xlsx
+++ b/P4_02_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -43,16 +43,184 @@
     <t xml:space="preserve">Accessibilité</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;html lang= « Default »&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour facilité l’utilisation de lecteur d’écrans, il est préférable de spécifié la langue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;html lang= « fr-FR »&gt;</t>
+    <t xml:space="preserve">La langue n’est pas definie : &lt;html lang= « Default »&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour facilité l’utilisation d’un lecteur d’écran, il est préférable de spécifié la langue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|La page doit spécifié sont langage général &lt;html lang= « fr-FR »&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.w3.org/International/questions/qa-html-language-declarations.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site n’a pas de titre : &lt;title&gt;.&lt;title&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette absence de titre handicap fortement son référencement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre du site doit contenir le nom de l’entreprise ainsi qu’une courte phrase d’accroche contenant les mots-clés les plus importants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webrankinfo.com/dossiers/debutants/balise-title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site n’a pas de balise meta de description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une bonne description est obligatoire pour optimiser le taux de clic des internautes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédiger une description claire et concise présentant l’entreprise et contenant les mots-clés qui lui sont associés, sous ce format : &lt;meta name="description" content="" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webrankinfo.com/dossiers/conseils/balise-meta-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site n’est pas suivis par Google Analytics et Google Search Console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des champ sont prévus a cet effet mais sont vides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un bon suivi de la fréquentation du site aidera a identifier les problèmes de référencement et les possibilités d’amélioration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.hubspot.fr/marketing/google-analytics-tuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site contient des textes cachés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain textes sont de la même couleur que leur fond et sont d’une taille quasi-indicernable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les bots qui passeront sur le site savent détecter ce genre de techniques de référencement frauduleuse et risque de sanctionner fortement le référencement du site. Technique a proscrire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/advanced/guidelines/webmaster-guidelines?hl=fr&amp;visit_id=637469086738428455-419324138&amp;rd=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’annuaire dans le footer ne mène nulle part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les liens qui se trouvent dans l’annuaire ne mènent nulle part et pourrait être considérer comme une tentative de fraude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crée des liens avec des sites partenaires est une bonne chose pour le référencement et l’image de marque du site mais ces sites doivent existé et être fiables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le h1 de la page 2 ainsi que le paragraphe le suivant présente une erreur de priorité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’attribut tc-white fait disparaître le texte qui auait du être noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste entre le fond  et le texte doit être de 3:1 pour le titre et 4,5:1 pour le paragraphe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/TR/WCAG/#contrast-minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certains textes dans le Bloc2 et le Bloc4 sont des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ces images pourrait être remplacée réspectivement par un h2 , un blockquote et un paragraphe, ce qui améliorerais la lecture et l’organisation des titres de la page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est important que la structure du site soit cohérente et que chaque contenu soit accessible au plus grand nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte alternatif des images est a modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte des images est actuellement utilisé en tant que vitrine de mots-clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte alternatif des images est destiné aux personnes n’ayant pas la possibilités de les voir , il doit donc correspondre a l’image autant que possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3.org/TR/WCAG/#text-alternatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images sont trop grandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taille excessive des images ralentie la vitesse de chargement du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est possible de compresser les images avec une faible perte de qualité pour augmenté la vitesse de chargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog-fr.orson.io/web-design/pourquoi-compresser-les-images-sur-mon-site-internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les ressources ne sont pas minifiées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site pourrait prendre moins d’espace si il êtait minifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifier sont site permet un gain de vitesse et donc de référencement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.it-connect.fr/quest-ce-que-la-minification/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le temps de vie du cache est peu élevé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une mise en cache plus longue pourrait améliorer la rapidité de chargement de pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mise en cache permet au utilisateurs de naviguer plus vite sur les sites qu’ils ont déjà consulté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTTP/Caching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommandation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si ce n’est pas déjà le cas , un pre-rendering pourait améliorer la crawlabilité du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le pre-rendering est la methode la plus adapté vis a vis de l’etat actuel du site, ca mise en place ameliorera la crawlabilité du site et donc son referencement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodmotion.fr/blog/installer-un-serveur-prerender-pour-ameliorer-le-seo-de-votre-web-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise &lt;meta keyword&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce type de balise est obsolète</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bien que non-pénalisante cette balise meta peut etre supprimée, on soulignera que les mots-clés qui y sont présent sont peut pertinent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.definitions-seo.com/definition-de-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charte graphique peut contraté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bouton de contact dans le bloc1 et les textes dans le footer ne se détache pas asser du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour que le contenu soit accessible au plus grand nombre les textes doivent présenter un contraste de 4,5:1 par rapport a leur fond et 3:1 pour les elements de design et les grands textes</t>
   </si>
 </sst>
 </file>
@@ -62,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -106,12 +274,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -169,7 +331,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,8 +340,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -190,12 +360,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -277,61 +447,61 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="11.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -340,54 +510,285 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="6"/>
+    <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="6"/>
+    <row r="5" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="6"/>
+    <row r="6" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="6"/>
+    <row r="7" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="6"/>
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="6"/>
+    <row r="9" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="6"/>
+    <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="6"/>
+    <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="6"/>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="6"/>
+    <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="6"/>
+    <row r="14" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="6"/>
+    <row r="15" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="6"/>
+    <row r="16" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1375,6 +1776,20 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://www.w3.org/International/questions/qa-html-language-declarations.fr"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.webrankinfo.com/dossiers/debutants/balise-title"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.webrankinfo.com/dossiers/conseils/balise-meta-description"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://blog.hubspot.fr/marketing/google-analytics-tuto"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://developers.google.com/search/docs/advanced/guidelines/webmaster-guidelines?hl=fr&amp;visit_id=637469086738428455-419324138&amp;rd=1"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://developers.google.com/search/docs/advanced/guidelines/webmaster-guidelines?hl=fr&amp;visit_id=637469086738428455-419324138&amp;rd=1"/>
+    <hyperlink ref="F8" r:id="rId7" location="contrast-minimum" display="https://www.w3.org/TR/WCAG/#contrast-minimum"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist"/>
+    <hyperlink ref="F10" r:id="rId9" location="text-alternatives" display="https://www.w3.org/TR/WCAG/#text-alternatives"/>
+    <hyperlink ref="F11" r:id="rId10" display="https://blog-fr.orson.io/web-design/pourquoi-compresser-les-images-sur-mon-site-internet"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://www.it-connect.fr/quest-ce-que-la-minification/"/>
+    <hyperlink ref="F13" r:id="rId12" display="https://developer.mozilla.org/fr/docs/Web/HTTP/Caching"/>
+    <hyperlink ref="F14" r:id="rId13" display="https://www.goodmotion.fr/blog/installer-un-serveur-prerender-pour-ameliorer-le-seo-de-votre-web-app"/>
+    <hyperlink ref="F15" r:id="rId14" display="https://www.definitions-seo.com/definition-de-balise-meta-keywords/"/>
+    <hyperlink ref="F16" r:id="rId15" location="contrast-minimum" display="https://www.w3.org/TR/WCAG/#contrast-minimum"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/P4_02_analyse.xlsx
+++ b/P4_02_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -214,13 +214,25 @@
     <t xml:space="preserve">https://www.definitions-seo.com/definition-de-balise-meta-keywords/</t>
   </si>
   <si>
-    <t xml:space="preserve">Charte graphique peut contraté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le bouton de contact dans le bloc1 et les textes dans le footer ne se détache pas asser du fond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour que le contenu soit accessible au plus grand nombre les textes doivent présenter un contraste de 4,5:1 par rapport a leur fond et 3:1 pour les elements de design et les grands textes</t>
+    <t xml:space="preserve">Charte graphique peut contrasté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bouton de contact dans le bloc1 et les textes dans le footer ne se détache pas assez du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour que le contenu soit accessible au plus grand nombre les textes doivent présenter un contraste de 4,5:1 par rapport a leur fond et 3:1 pour les éléments de design et les grands textes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les formulaire n’ont pas de message d’erreur ou de succès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les messages d’erreurs ou de succès des formulaires ne sont pas fonctionnels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les formulaires doivent faire comprendre clairement aux utilisateurs si ils ont correctement remplis les champs ou pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/forms/Basic_form_hints</t>
   </si>
 </sst>
 </file>
@@ -447,8 +459,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,7 +801,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1790,6 +1818,7 @@
     <hyperlink ref="F14" r:id="rId13" display="https://www.goodmotion.fr/blog/installer-un-serveur-prerender-pour-ameliorer-le-seo-de-votre-web-app"/>
     <hyperlink ref="F15" r:id="rId14" display="https://www.definitions-seo.com/definition-de-balise-meta-keywords/"/>
     <hyperlink ref="F16" r:id="rId15" location="contrast-minimum" display="https://www.w3.org/TR/WCAG/#contrast-minimum"/>
+    <hyperlink ref="F17" r:id="rId16" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/forms/Basic_form_hints"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/P4_02_analyse.xlsx
+++ b/P4_02_analyse.xlsx
@@ -242,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -282,13 +282,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -343,7 +350,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,8 +379,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -459,8 +470,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,14 +523,14 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -528,78 +539,78 @@
       <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -608,213 +619,215 @@
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
         <v>70</v>
       </c>
     </row>

--- a/P4_02_analyse.xlsx
+++ b/P4_02_analyse.xlsx
@@ -43,13 +43,13 @@
     <t xml:space="preserve">Accessibilité</t>
   </si>
   <si>
-    <t xml:space="preserve">La langue n’est pas definie : &lt;html lang= « Default »&gt;</t>
+    <t xml:space="preserve">La langue n’est pas définie : &lt;html lang= « Default »&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Pour facilité l’utilisation d’un lecteur d’écran, il est préférable de spécifié la langue</t>
   </si>
   <si>
-    <t xml:space="preserve">|La page doit spécifié sont langage général &lt;html lang= « fr-FR »&gt;</t>
+    <t xml:space="preserve">La page doit spécifier son langage général &lt;html lang= « fr-FR »&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Le site n’a pas de balise meta de description</t>
   </si>
   <si>
-    <t xml:space="preserve">Une bonne description est obligatoire pour optimiser le taux de clic des internautes</t>
+    <t xml:space="preserve">Une bonne description est obligatoire pour optimiser le taux de clics des internautes</t>
   </si>
   <si>
     <t xml:space="preserve">Rédiger une description claire et concise présentant l’entreprise et contenant les mots-clés qui lui sont associés, sous ce format : &lt;meta name="description" content="" /&gt;</t>
@@ -88,10 +88,10 @@
     <t xml:space="preserve">Le site n’est pas suivis par Google Analytics et Google Search Console</t>
   </si>
   <si>
-    <t xml:space="preserve">Des champ sont prévus a cet effet mais sont vides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un bon suivi de la fréquentation du site aidera a identifier les problèmes de référencement et les possibilités d’amélioration</t>
+    <t xml:space="preserve">Des champs sont prévus à cet effet mais sont vides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un bon suivi de la fréquentation du site aidera à identifier les problèmes de référencement et les possibilités d’amélioration</t>
   </si>
   <si>
     <t xml:space="preserve">https://blog.hubspot.fr/marketing/google-analytics-tuto</t>
@@ -100,10 +100,10 @@
     <t xml:space="preserve">Le site contient des textes cachés </t>
   </si>
   <si>
-    <t xml:space="preserve">Certain textes sont de la même couleur que leur fond et sont d’une taille quasi-indicernable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les bots qui passeront sur le site savent détecter ce genre de techniques de référencement frauduleuse et risque de sanctionner fortement le référencement du site. Technique a proscrire</t>
+    <t xml:space="preserve">Certains textes sont de la même couleur que leur fond et sont d’une taille quasi-indicernable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les bots qui passeront sur le site savent détecter ce genre de techniques de référencement frauduleuses et risquent de sanctionner fortement le référencement du site. Technique à proscrire</t>
   </si>
   <si>
     <t xml:space="preserve">https://developers.google.com/search/docs/advanced/guidelines/webmaster-guidelines?hl=fr&amp;visit_id=637469086738428455-419324138&amp;rd=1</t>
@@ -112,19 +112,19 @@
     <t xml:space="preserve">L’annuaire dans le footer ne mène nulle part</t>
   </si>
   <si>
-    <t xml:space="preserve">les liens qui se trouvent dans l’annuaire ne mènent nulle part et pourrait être considérer comme une tentative de fraude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crée des liens avec des sites partenaires est une bonne chose pour le référencement et l’image de marque du site mais ces sites doivent existé et être fiables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le h1 de la page 2 ainsi que le paragraphe le suivant présente une erreur de priorité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’attribut tc-white fait disparaître le texte qui auait du être noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contraste entre le fond  et le texte doit être de 3:1 pour le titre et 4,5:1 pour le paragraphe</t>
+    <t xml:space="preserve">Lles liens qui se trouvent dans l’annuaire ne mènent null  part et pourraenit être considéésr comme une tentative de fraude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer des liens avec des sites partenaires est une bonne chose pour le référencement et l’image de marque du site mais ces sites doivent exister et être fiables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le h1 de la page 2 ainsi que le paragraphe suivant présente une erreur de priorité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’attribut tc-white fait disparaître le texte qui aurait dû être noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste entre le fond et le texte doit être de 3:1 pour le titre et 4,5:1 pour le paragraphe</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.w3.org/TR/WCAG/#contrast-minimum</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Certains textes dans le Bloc2 et le Bloc4 sont des images</t>
   </si>
   <si>
-    <t xml:space="preserve">Ces images pourrait être remplacée réspectivement par un h2 , un blockquote et un paragraphe, ce qui améliorerais la lecture et l’organisation des titres de la page</t>
+    <t xml:space="preserve">Ces images pourraient être remplacées respectivement par un h2, un blockquote et un paragraphe, ce qui améliorerait la lecture et l’organisation des titres de la page</t>
   </si>
   <si>
     <t xml:space="preserve">Il est important que la structure du site soit cohérente et que chaque contenu soit accessible au plus grand nombre</t>
@@ -142,13 +142,13 @@
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Le texte alternatif des images est a modifier</t>
+    <t xml:space="preserve">Le texte alternatif des images est à modifier</t>
   </si>
   <si>
     <t xml:space="preserve">Le texte des images est actuellement utilisé en tant que vitrine de mots-clés</t>
   </si>
   <si>
-    <t xml:space="preserve">Le texte alternatif des images est destiné aux personnes n’ayant pas la possibilités de les voir , il doit donc correspondre a l’image autant que possible</t>
+    <t xml:space="preserve">Le texte alternatif des images est destiné aux personnes n’ayant pas la possibilité de les voir, il doit donc correspondre à l’image autant que possible</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.w3.org/TR/WCAG/#text-alternatives</t>
@@ -157,10 +157,10 @@
     <t xml:space="preserve">Les images sont trop grandes</t>
   </si>
   <si>
-    <t xml:space="preserve">La taille excessive des images ralentie la vitesse de chargement du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il est possible de compresser les images avec une faible perte de qualité pour augmenté la vitesse de chargement</t>
+    <t xml:space="preserve">La taille excessive des images ralenti la vitesse de chargement du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est possible de compresser les images avec une faible perte de qualité pour augmenter la vitesse de chargement</t>
   </si>
   <si>
     <t xml:space="preserve">https://blog-fr.orson.io/web-design/pourquoi-compresser-les-images-sur-mon-site-internet</t>
@@ -169,10 +169,10 @@
     <t xml:space="preserve">Les ressources ne sont pas minifiées</t>
   </si>
   <si>
-    <t xml:space="preserve">Le site pourrait prendre moins d’espace si il êtait minifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minifier sont site permet un gain de vitesse et donc de référencement</t>
+    <t xml:space="preserve">Le site pourrait prendre moins d’espace si il était minifié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifier son site permet un gain de vitesse et donc de référencement</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.it-connect.fr/quest-ce-que-la-minification/</t>
@@ -181,10 +181,10 @@
     <t xml:space="preserve">Le temps de vie du cache est peu élevé</t>
   </si>
   <si>
-    <t xml:space="preserve">Une mise en cache plus longue pourrait améliorer la rapidité de chargement de pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La mise en cache permet au utilisateurs de naviguer plus vite sur les sites qu’ils ont déjà consulté</t>
+    <t xml:space="preserve">Une mise en cache plus longue pourrait améliorer la rapidité de chargement des pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mise en cache permet aux utilisateurs de naviguer plus vite sur les sites qu’ils ont déjà consulté</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTTP/Caching</t>
@@ -193,10 +193,10 @@
     <t xml:space="preserve">Recommandation</t>
   </si>
   <si>
-    <t xml:space="preserve">Si ce n’est pas déjà le cas , un pre-rendering pourait améliorer la crawlabilité du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le pre-rendering est la methode la plus adapté vis a vis de l’etat actuel du site, ca mise en place ameliorera la crawlabilité du site et donc son referencement</t>
+    <t xml:space="preserve">Si ce n’est pas déjà le cas, un pré-rendering pourait améliorer la crawlabilité du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le pré-rendering est la méthode la plus adaptée vis-à-vis de l’état actuel du site, ça mise en place améliorera la crawlabilité du site et donc son référencement</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.goodmotion.fr/blog/installer-un-serveur-prerender-pour-ameliorer-le-seo-de-votre-web-app</t>
@@ -208,28 +208,28 @@
     <t xml:space="preserve">Ce type de balise est obsolète</t>
   </si>
   <si>
-    <t xml:space="preserve">bien que non-pénalisante cette balise meta peut etre supprimée, on soulignera que les mots-clés qui y sont présent sont peut pertinent</t>
+    <t xml:space="preserve">Bien que non-pénalisante cette balise meta peut être supprimée, on soulignera que les mots-clés qui y sont présent sont peu pertinents</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.definitions-seo.com/definition-de-balise-meta-keywords/</t>
   </si>
   <si>
-    <t xml:space="preserve">Charte graphique peut contrasté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le bouton de contact dans le bloc1 et les textes dans le footer ne se détache pas assez du fond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour que le contenu soit accessible au plus grand nombre les textes doivent présenter un contraste de 4,5:1 par rapport a leur fond et 3:1 pour les éléments de design et les grands textes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les formulaire n’ont pas de message d’erreur ou de succès</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les messages d’erreurs ou de succès des formulaires ne sont pas fonctionnels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les formulaires doivent faire comprendre clairement aux utilisateurs si ils ont correctement remplis les champs ou pas</t>
+    <t xml:space="preserve">Charte graphique peu contrastée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bouton de contact dans le bloc1 et les textes dans le footer ne se détachent pas assez du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour que le contenu soit accessible au plus grand nombre les textes doivent présenter un contraste de 4,5:1 par rapport à leur fond et 3:1 pour les éléments de design et les grands textes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les formulaires n’ont pas de messages d’erreur ou de succès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les messages d’erreur ou de succès des formulaires ne sont pas fonctionnels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les formulaires doivent faire comprendre clairement aux utilisateurs si ils ont correctement rempli les champs ou pas</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/forms/Basic_form_hints</t>
@@ -470,8 +470,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>

--- a/P4_02_analyse.xlsx
+++ b/P4_02_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -233,6 +233,57 @@
   </si>
   <si>
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/forms/Basic_form_hints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille de la police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taille de certaine polices est trop faible pour etre lisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte se doit d’etre lisible , notament sur mobile pour que les utilisateurs n’aient pas a zoomer pour pouvoir lire certain texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO/Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elements interactifs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain elements interactifs tel que des boutons ou des liens sont trop petits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour s’assurer que l’utilisateur mobile puissent utiliser correctement les liens et boutons qui lui sont proposés, ils doivent etres suffisament espacés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaires non-labelisés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les formulaires ne sont pas reliés a leur label autrement que visuellement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La labelisation des formulaires est essentiel pour que les personnes en situation de handicap puissent les remplir, de plus cela facilitera l’utilisation mobile en agrandissant la cible du click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dequeuniversity.com/rules/axe/3.3/label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">police unique dans le css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaines polices n’ont pas d’alternative n’ayant pas besoin d’etre téléchargé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les polices sont des fichiers volumineux et pour s’assurer que l’utilisateur puisse toujours voir le texte pendant le téléchargement il faut donner des alternative presente a l’origine dans son systeme d’exploitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
 </sst>
 </file>
@@ -242,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -266,28 +317,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -297,6 +326,36 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -350,45 +409,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -470,11 +517,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.71"/>
@@ -527,314 +574,384 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="83.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1832,6 +1949,10 @@
     <hyperlink ref="F15" r:id="rId14" display="https://www.definitions-seo.com/definition-de-balise-meta-keywords/"/>
     <hyperlink ref="F16" r:id="rId15" location="contrast-minimum" display="https://www.w3.org/TR/WCAG/#contrast-minimum"/>
     <hyperlink ref="F17" r:id="rId16" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/forms/Basic_form_hints"/>
+    <hyperlink ref="F18" r:id="rId17" display="https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://dequeuniversity.com/rules/axe/3.3/label"/>
+    <hyperlink ref="F21" r:id="rId20" display="https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
